--- a/BCB520/posts/T8-MidtermExample/params.xlsx
+++ b/BCB520/posts/T8-MidtermExample/params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/RobisonWeb/BCB520/posts/T8-MidtermExample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332BC08A-1022-CD42-921C-D8082FB54CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97245EF0-63CE-7B41-A5A9-34BB45B4341F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39740" yWindow="1800" windowWidth="39140" windowHeight="17980" xr2:uid="{11B7EA89-F8B7-CB47-A76D-1067C45324D3}"/>
+    <workbookView xWindow="41180" yWindow="1940" windowWidth="39140" windowHeight="17980" xr2:uid="{11B7EA89-F8B7-CB47-A76D-1067C45324D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
